--- a/templates/SPA/country_data.xlsx
+++ b/templates/SPA/country_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisfernandoquezada/Documents/GitHub/omrat/template/SPA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5aee5c5b004427f/Documents/mr-risk-assessment/templates/SPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A19CEE9-D290-A84C-A865-FBE6391B7508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8A19CEE9-D290-A84C-A865-FBE6391B7508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0489172E-E65D-4800-8754-C30B3D7F32E8}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="19540" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="10060" tabRatio="773" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-General" sheetId="1" r:id="rId1"/>
@@ -672,9 +672,6 @@
     <t>Cobertura de la última campaña de seguimiento</t>
   </si>
   <si>
-    <t>Porcentaje de hospitales de nivel subnacional con personal capacitado para hacer triaje y aislar casos altamente sospechosos de sarampión y rubéola</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cobertura de SRP1 por municipio </t>
   </si>
   <si>
@@ -685,6 +682,9 @@
   </si>
   <si>
     <t>SPA</t>
+  </si>
+  <si>
+    <t>El equipo subnacional de respuesta rápida fue entrenado en los últimos 2 años</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1551,12 +1551,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="167" formatCode="d/mm/yy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -1576,12 +1576,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="167" formatCode="d/mm/yy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -1600,11 +1600,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="167" formatCode="d/mm/yy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1624,11 +1624,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="167" formatCode="d/mm/yy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1648,11 +1648,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="167" formatCode="d/mm/yy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1717,11 +1717,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="167" formatCode="d/mm/yy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1813,7 +1813,7 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -2591,18 +2591,18 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="70.5" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="31" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>28</v>
       </c>
@@ -2610,13 +2610,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -2624,31 +2624,31 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
@@ -2656,12 +2656,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2685,17 +2685,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="13.83203125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="27" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="27"/>
+    <col min="1" max="2" width="13.81640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="45" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>89</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="33"/>
@@ -2723,7 +2723,7 @@
       <c r="E2" s="38"/>
       <c r="F2" s="30"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="33"/>
@@ -2731,7 +2731,7 @@
       <c r="E3" s="38"/>
       <c r="F3" s="30"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="33"/>
@@ -2739,7 +2739,7 @@
       <c r="E4" s="38"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="33"/>
@@ -2747,7 +2747,7 @@
       <c r="E5" s="38"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="33"/>
@@ -2755,7 +2755,7 @@
       <c r="E6" s="38"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="33"/>
@@ -2780,25 +2780,25 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" style="27" customWidth="1"/>
-    <col min="10" max="11" width="8.1640625" style="27" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="27" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="27" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" style="27" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="27" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="27"/>
+    <col min="1" max="2" width="10.81640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="7.1796875" style="27" customWidth="1"/>
+    <col min="10" max="11" width="8.1796875" style="27" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" style="27" customWidth="1"/>
+    <col min="14" max="14" width="7.36328125" style="27" customWidth="1"/>
+    <col min="15" max="15" width="16.6328125" style="27" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="61" customHeight="1">
       <c r="A1" s="48" t="s">
         <v>89</v>
       </c>
@@ -2812,14 +2812,14 @@
         <v>31</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
       <c r="I1" s="49"/>
       <c r="J1" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K1" s="49"/>
       <c r="L1" s="49"/>
@@ -2829,7 +2829,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="O2" s="50"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="1"/>
@@ -2893,7 +2893,7 @@
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
@@ -2910,7 +2910,7 @@
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="1"/>
@@ -2927,7 +2927,7 @@
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="1"/>
@@ -2944,7 +2944,7 @@
       <c r="N6" s="31"/>
       <c r="O6" s="31"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="1"/>
@@ -2961,7 +2961,7 @@
       <c r="N7" s="31"/>
       <c r="O7" s="31"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="1"/>
@@ -2978,7 +2978,7 @@
       <c r="N8" s="31"/>
       <c r="O8" s="31"/>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="16.5">
       <c r="D10" s="32"/>
     </row>
   </sheetData>
@@ -3005,21 +3005,21 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="27" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="27" customWidth="1"/>
     <col min="7" max="7" width="17" style="27" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="32.1796875" style="27" customWidth="1"/>
     <col min="9" max="9" width="30" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="27"/>
+    <col min="10" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="58" customHeight="1">
       <c r="A1" s="48" t="s">
         <v>89</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
@@ -3074,7 +3074,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="20.25" customHeight="1">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="1"/>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="1"/>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="1"/>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="1"/>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="1"/>
@@ -3198,24 +3198,24 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="12.6640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="27" customWidth="1"/>
+    <col min="1" max="2" width="12.6328125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="24.81640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="27" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" style="27" customWidth="1"/>
     <col min="10" max="10" width="20" style="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="27" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="27" customWidth="1"/>
-    <col min="13" max="16" width="20.83203125" style="27" customWidth="1"/>
-    <col min="17" max="16384" width="9.1640625" style="27"/>
+    <col min="11" max="11" width="19.1796875" style="27" customWidth="1"/>
+    <col min="12" max="12" width="21.453125" style="27" customWidth="1"/>
+    <col min="13" max="16" width="20.81640625" style="27" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="112.5" customHeight="1">
       <c r="A1" s="48" t="s">
         <v>89</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="29" customHeight="1">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
@@ -3291,7 +3291,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="1"/>
@@ -3305,7 +3305,7 @@
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
@@ -3319,7 +3319,7 @@
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="1"/>
@@ -3333,7 +3333,7 @@
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="1"/>
@@ -3347,7 +3347,7 @@
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="1"/>
@@ -3361,7 +3361,7 @@
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="1"/>
@@ -3412,31 +3412,31 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="28" width="35.83203125" customWidth="1"/>
+    <col min="14" max="14" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="23.5">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3459,7 +3459,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3482,7 +3482,7 @@
       <c r="R2" s="11"/>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15.5">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="17" t="str">
@@ -3508,7 +3508,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3531,7 +3531,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3554,7 +3554,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3577,7 +3577,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3598,7 +3598,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="6"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3619,7 +3619,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="6"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -3640,7 +3640,7 @@
       <c r="R9" s="14"/>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="15" t="s">
         <v>67</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3779,7 +3779,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="G14" s="28"/>
       <c r="K14" s="28"/>
       <c r="M14" s="42"/>
@@ -3848,7 +3848,7 @@
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="18" t="s">
         <v>2</v>
       </c>
@@ -3877,7 +3877,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="19"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="G16" s="26"/>
@@ -3890,7 +3890,7 @@
       <c r="Q16" s="28"/>
       <c r="R16" s="26"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="G17" s="26"/>
@@ -3903,7 +3903,7 @@
       <c r="Q17" s="28"/>
       <c r="R17" s="26"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="G18" s="26"/>
@@ -3916,7 +3916,7 @@
       <c r="Q18" s="28"/>
       <c r="R18" s="26"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="G19" s="26"/>
@@ -3929,7 +3929,7 @@
       <c r="Q19" s="28"/>
       <c r="R19" s="26"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="G20" s="26"/>
@@ -3942,7 +3942,7 @@
       <c r="Q20" s="28"/>
       <c r="R20" s="26"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="G21" s="26"/>
@@ -3955,7 +3955,7 @@
       <c r="Q21" s="28"/>
       <c r="R21" s="26"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="G22" s="26"/>
@@ -3968,7 +3968,7 @@
       <c r="Q22" s="28"/>
       <c r="R22" s="26"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="G23" s="26"/>
@@ -3981,7 +3981,7 @@
       <c r="Q23" s="28"/>
       <c r="R23" s="26"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="G24" s="26"/>
@@ -3994,7 +3994,7 @@
       <c r="Q24" s="28"/>
       <c r="R24" s="26"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="G25" s="26"/>
@@ -4007,7 +4007,7 @@
       <c r="Q25" s="28"/>
       <c r="R25" s="26"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="G26" s="26"/>
@@ -4020,7 +4020,7 @@
       <c r="Q26" s="28"/>
       <c r="R26" s="26"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="G27" s="26"/>
@@ -4033,7 +4033,7 @@
       <c r="Q27" s="28"/>
       <c r="R27" s="26"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="G28" s="26"/>
@@ -4046,7 +4046,7 @@
       <c r="Q28" s="28"/>
       <c r="R28" s="26"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="G29" s="26"/>
@@ -4059,7 +4059,7 @@
       <c r="Q29" s="28"/>
       <c r="R29" s="26"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="G30" s="26"/>
@@ -4072,7 +4072,7 @@
       <c r="Q30" s="28"/>
       <c r="R30" s="26"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="G31" s="26"/>
@@ -4085,7 +4085,7 @@
       <c r="Q31" s="28"/>
       <c r="R31" s="26"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="G32" s="26"/>
@@ -4098,7 +4098,7 @@
       <c r="Q32" s="28"/>
       <c r="R32" s="26"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="G33" s="26"/>
@@ -4111,7 +4111,7 @@
       <c r="Q33" s="28"/>
       <c r="R33" s="26"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="G34" s="26"/>
@@ -4124,7 +4124,7 @@
       <c r="Q34" s="28"/>
       <c r="R34" s="26"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="G35" s="26"/>
@@ -4137,7 +4137,7 @@
       <c r="Q35" s="28"/>
       <c r="R35" s="26"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="G36" s="26"/>
@@ -4150,7 +4150,7 @@
       <c r="Q36" s="28"/>
       <c r="R36" s="26"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="G37" s="26"/>
@@ -4163,7 +4163,7 @@
       <c r="Q37" s="28"/>
       <c r="R37" s="26"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="G38" s="26"/>
@@ -4176,7 +4176,7 @@
       <c r="Q38" s="28"/>
       <c r="R38" s="26"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="G39" s="26"/>
@@ -4189,7 +4189,7 @@
       <c r="Q39" s="28"/>
       <c r="R39" s="26"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="G40" s="26"/>
@@ -4202,7 +4202,7 @@
       <c r="Q40" s="28"/>
       <c r="R40" s="26"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="G41" s="26"/>
@@ -4215,7 +4215,7 @@
       <c r="Q41" s="28"/>
       <c r="R41" s="26"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="G42" s="26"/>
@@ -4228,7 +4228,7 @@
       <c r="Q42" s="28"/>
       <c r="R42" s="26"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="G43" s="26"/>
@@ -4241,7 +4241,7 @@
       <c r="Q43" s="28"/>
       <c r="R43" s="26"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="G44" s="26"/>
@@ -4254,7 +4254,7 @@
       <c r="Q44" s="28"/>
       <c r="R44" s="26"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="G45" s="26"/>
@@ -4267,7 +4267,7 @@
       <c r="Q45" s="28"/>
       <c r="R45" s="26"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="G46" s="26"/>
@@ -4280,7 +4280,7 @@
       <c r="Q46" s="28"/>
       <c r="R46" s="26"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="G47" s="26"/>
@@ -4293,7 +4293,7 @@
       <c r="Q47" s="28"/>
       <c r="R47" s="26"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="G48" s="26"/>
@@ -4306,7 +4306,7 @@
       <c r="Q48" s="28"/>
       <c r="R48" s="26"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="G49" s="26"/>
@@ -4319,7 +4319,7 @@
       <c r="Q49" s="28"/>
       <c r="R49" s="26"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="G50" s="26"/>
@@ -4332,7 +4332,7 @@
       <c r="Q50" s="28"/>
       <c r="R50" s="26"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="G51" s="26"/>
@@ -4345,7 +4345,7 @@
       <c r="Q51" s="28"/>
       <c r="R51" s="26"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="G52" s="26"/>
@@ -4358,7 +4358,7 @@
       <c r="Q52" s="28"/>
       <c r="R52" s="26"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="G53" s="26"/>
@@ -4371,7 +4371,7 @@
       <c r="Q53" s="28"/>
       <c r="R53" s="26"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="G54" s="26"/>
@@ -4384,7 +4384,7 @@
       <c r="Q54" s="28"/>
       <c r="R54" s="26"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="G55" s="26"/>
@@ -4458,19 +4458,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="10.33203125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="27" customWidth="1"/>
+    <col min="1" max="2" width="10.36328125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="27" customWidth="1"/>
     <col min="5" max="5" width="24" style="27" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="27"/>
+    <col min="6" max="6" width="33.453125" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="91.75" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>89</v>
       </c>
@@ -4487,10 +4489,10 @@
         <v>61</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="1"/>
@@ -4498,7 +4500,7 @@
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="1"/>
@@ -4506,7 +4508,7 @@
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
@@ -4514,7 +4516,7 @@
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="1"/>
@@ -4522,7 +4524,7 @@
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="1"/>
@@ -4530,7 +4532,7 @@
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="1"/>
@@ -4549,7 +4551,7 @@
           <x14:formula1>
             <xm:f>_ListValues!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E7</xm:sqref>
+          <xm:sqref>E2:F7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4566,23 +4568,23 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" style="6" customWidth="1"/>
     <col min="3" max="3" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.1640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1796875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.453125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="6"/>
-    <col min="11" max="11" width="13.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -4602,7 +4604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -4622,7 +4624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -4642,7 +4644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -4656,7 +4658,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
@@ -4667,18 +4669,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="E6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="E7" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="E8" s="6" t="s">
         <v>40</v>
       </c>
@@ -4697,9 +4699,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4926,27 +4931,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A51E5E2-41F2-4A1F-A4B0-950DEDB4B143}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6264E33-6917-4678-8EC8-8D88A2F9795C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4655c133-e14e-4d88-8fbc-c3b347145ec5"/>
-    <ds:schemaRef ds:uri="64ced670-a384-4657-ba0f-fc07d30f5a44"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4971,9 +4964,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6264E33-6917-4678-8EC8-8D88A2F9795C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A51E5E2-41F2-4A1F-A4B0-950DEDB4B143}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4655c133-e14e-4d88-8fbc-c3b347145ec5"/>
+    <ds:schemaRef ds:uri="64ced670-a384-4657-ba0f-fc07d30f5a44"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>